--- a/biology/Botanique/Phégoptère_à_hexagones/Phégoptère_à_hexagones.xlsx
+++ b/biology/Botanique/Phégoptère_à_hexagones/Phégoptère_à_hexagones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ph%C3%A9gopt%C3%A8re_%C3%A0_hexagones</t>
+          <t>Phégoptère_à_hexagones</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phegopteris hexagonoptera
 La Phégoptère à hexagones (Phegopteris hexagonoptera) est une espèce de fougère de la famille des thélyptéridacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ph%C3%A9gopt%C3%A8re_%C3%A0_hexagones</t>
+          <t>Phégoptère_à_hexagones</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve la phégoptère à hexagones aux États-Unis du Texas à la Floride jusqu'au Minnesota au Maine, ainsi qu'au Canada, au sud de l'Ontario et au sud du Québec[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve la phégoptère à hexagones aux États-Unis du Texas à la Floride jusqu'au Minnesota au Maine, ainsi qu'au Canada, au sud de l'Ontario et au sud du Québec.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ph%C3%A9gopt%C3%A8re_%C3%A0_hexagones</t>
+          <t>Phégoptère_à_hexagones</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Menace</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La situation du phégoptère à hexagones est considérée comme « préoccupante » par le comité sur la situation des espèces en péril au Canada du fait du faible nombre et de la dispersion des populations[2]. Cette espèce est classée « menacée » au Québec[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La situation du phégoptère à hexagones est considérée comme « préoccupante » par le comité sur la situation des espèces en péril au Canada du fait du faible nombre et de la dispersion des populations. Cette espèce est classée « menacée » au Québec.
 </t>
         </is>
       </c>
